--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amh-Amhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amh-Amhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amh</t>
+  </si>
+  <si>
+    <t>Amhr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Amh</t>
-  </si>
-  <si>
-    <t>Amhr2</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +543,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H2">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I2">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J2">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2053293333333333</v>
+        <v>0.254795</v>
       </c>
       <c r="N2">
-        <v>0.615988</v>
+        <v>0.764385</v>
       </c>
       <c r="O2">
-        <v>0.347947998836385</v>
+        <v>0.322651790511977</v>
       </c>
       <c r="P2">
-        <v>0.347947998836385</v>
+        <v>0.3226517905119771</v>
       </c>
       <c r="Q2">
-        <v>0.006721387283555556</v>
+        <v>0.04893796606</v>
       </c>
       <c r="R2">
-        <v>0.060492485552</v>
+        <v>0.44044169454</v>
       </c>
       <c r="S2">
-        <v>0.006122880418638053</v>
+        <v>0.03368704668651323</v>
       </c>
       <c r="T2">
-        <v>0.006122880418638051</v>
+        <v>0.03368704668651323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H3">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I3">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J3">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1898623333333334</v>
+        <v>0.1898623333333333</v>
       </c>
       <c r="N3">
-        <v>0.5695870000000001</v>
+        <v>0.569587</v>
       </c>
       <c r="O3">
-        <v>0.3217378533562667</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="P3">
-        <v>0.3217378533562668</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="Q3">
-        <v>0.006215080194222223</v>
+        <v>0.03646647863866667</v>
       </c>
       <c r="R3">
-        <v>0.055935721748</v>
+        <v>0.328198307748</v>
       </c>
       <c r="S3">
-        <v>0.00566165751444962</v>
+        <v>0.02510214598799166</v>
       </c>
       <c r="T3">
-        <v>0.00566165751444962</v>
+        <v>0.02510214598799167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H4">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I4">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J4">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02055033333333333</v>
+        <v>0.02660066666666666</v>
       </c>
       <c r="N4">
-        <v>0.061651</v>
+        <v>0.079802</v>
       </c>
       <c r="O4">
-        <v>0.03482428566183427</v>
+        <v>0.03368493388336609</v>
       </c>
       <c r="P4">
-        <v>0.03482428566183428</v>
+        <v>0.0336849338833661</v>
       </c>
       <c r="Q4">
-        <v>0.0006727083115555556</v>
+        <v>0.005109136845333333</v>
       </c>
       <c r="R4">
-        <v>0.006054374804</v>
+        <v>0.045982231608</v>
       </c>
       <c r="S4">
-        <v>0.0006128069064485908</v>
+        <v>0.003516936752653608</v>
       </c>
       <c r="T4">
-        <v>0.0006128069064485908</v>
+        <v>0.003516936752653609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +729,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03273466666666667</v>
+        <v>0.192068</v>
       </c>
       <c r="H5">
-        <v>0.098204</v>
+        <v>0.576204</v>
       </c>
       <c r="I5">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="J5">
-        <v>0.01759711347418096</v>
+        <v>0.1044068177432375</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.174373</v>
+        <v>0.3184323333333333</v>
       </c>
       <c r="N5">
-        <v>0.523119</v>
+        <v>0.955297</v>
       </c>
       <c r="O5">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381942</v>
       </c>
       <c r="P5">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381943</v>
       </c>
       <c r="Q5">
-        <v>0.005708042030666667</v>
+        <v>0.06116066139866667</v>
       </c>
       <c r="R5">
-        <v>0.051372378276</v>
+        <v>0.550445952588</v>
       </c>
       <c r="S5">
-        <v>0.005199768634644699</v>
+        <v>0.04210068831607897</v>
       </c>
       <c r="T5">
-        <v>0.005199768634644699</v>
+        <v>0.04210068831607897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +782,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H6">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I6">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J6">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2053293333333333</v>
+        <v>0.254795</v>
       </c>
       <c r="N6">
-        <v>0.615988</v>
+        <v>0.764385</v>
       </c>
       <c r="O6">
-        <v>0.347947998836385</v>
+        <v>0.322651790511977</v>
       </c>
       <c r="P6">
-        <v>0.347947998836385</v>
+        <v>0.3226517905119771</v>
       </c>
       <c r="Q6">
-        <v>0.03943719439466667</v>
+        <v>0.05115757023666666</v>
       </c>
       <c r="R6">
-        <v>0.354934749552</v>
+        <v>0.46041813213</v>
       </c>
       <c r="S6">
-        <v>0.03592550393813816</v>
+        <v>0.03521493833271029</v>
       </c>
       <c r="T6">
-        <v>0.03592550393813816</v>
+        <v>0.0352149383327103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +844,25 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H7">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I7">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J7">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1898623333333334</v>
+        <v>0.1898623333333333</v>
       </c>
       <c r="N7">
-        <v>0.5695870000000001</v>
+        <v>0.569587</v>
       </c>
       <c r="O7">
-        <v>0.3217378533562667</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="P7">
-        <v>0.3217378533562668</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="Q7">
-        <v>0.03646647863866667</v>
+        <v>0.03812043271177778</v>
       </c>
       <c r="R7">
-        <v>0.3281983077480001</v>
+        <v>0.343083894406</v>
       </c>
       <c r="S7">
-        <v>0.03321931597955204</v>
+        <v>0.02624066547631555</v>
       </c>
       <c r="T7">
-        <v>0.03321931597955204</v>
+        <v>0.02624066547631555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +909,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.192068</v>
+        <v>0.2007793333333333</v>
       </c>
       <c r="H8">
-        <v>0.576204</v>
+        <v>0.602338</v>
       </c>
       <c r="I8">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="J8">
-        <v>0.1032496351704306</v>
+        <v>0.1091422374468525</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02055033333333333</v>
+        <v>0.02660066666666666</v>
       </c>
       <c r="N8">
-        <v>0.061651</v>
+        <v>0.079802</v>
       </c>
       <c r="O8">
-        <v>0.03482428566183427</v>
+        <v>0.03368493388336609</v>
       </c>
       <c r="P8">
-        <v>0.03482428566183428</v>
+        <v>0.0336849338833661</v>
       </c>
       <c r="Q8">
-        <v>0.003947061422666667</v>
+        <v>0.005340864119555555</v>
       </c>
       <c r="R8">
-        <v>0.035523552804</v>
+        <v>0.048067777076</v>
       </c>
       <c r="S8">
-        <v>0.003595594789655246</v>
+        <v>0.003676449052279868</v>
       </c>
       <c r="T8">
-        <v>0.003595594789655247</v>
+        <v>0.003676449052279868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2007793333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.602338</v>
+      </c>
+      <c r="I9">
+        <v>0.1091422374468525</v>
+      </c>
+      <c r="J9">
+        <v>0.1091422374468525</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.192068</v>
-      </c>
-      <c r="H9">
-        <v>0.576204</v>
-      </c>
-      <c r="I9">
-        <v>0.1032496351704306</v>
-      </c>
-      <c r="J9">
-        <v>0.1032496351704306</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M9">
-        <v>0.174373</v>
+        <v>0.3184323333333333</v>
       </c>
       <c r="N9">
-        <v>0.523119</v>
+        <v>0.955297</v>
       </c>
       <c r="O9">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381942</v>
       </c>
       <c r="P9">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381943</v>
       </c>
       <c r="Q9">
-        <v>0.033491473364</v>
+        <v>0.06393463159844444</v>
       </c>
       <c r="R9">
-        <v>0.301423260276</v>
+        <v>0.575411684386</v>
       </c>
       <c r="S9">
-        <v>0.03050922046308515</v>
+        <v>0.04401018458554674</v>
       </c>
       <c r="T9">
-        <v>0.03050922046308516</v>
+        <v>0.04401018458554674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,55 +1030,55 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H10">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I10">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J10">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2053293333333333</v>
+        <v>0.254795</v>
       </c>
       <c r="N10">
-        <v>0.615988</v>
+        <v>0.764385</v>
       </c>
       <c r="O10">
-        <v>0.347947998836385</v>
+        <v>0.322651790511977</v>
       </c>
       <c r="P10">
-        <v>0.347947998836385</v>
+        <v>0.3226517905119771</v>
       </c>
       <c r="Q10">
-        <v>0.04268564133422223</v>
+        <v>0.092645755155</v>
       </c>
       <c r="R10">
-        <v>0.384170772008</v>
+        <v>0.833811796395</v>
       </c>
       <c r="S10">
-        <v>0.03888469246843632</v>
+        <v>0.06377383717556484</v>
       </c>
       <c r="T10">
-        <v>0.03888469246843631</v>
+        <v>0.06377383717556484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,25 +1092,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H11">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I11">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J11">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1898623333333334</v>
+        <v>0.1898623333333333</v>
       </c>
       <c r="N11">
-        <v>0.5695870000000001</v>
+        <v>0.569587</v>
       </c>
       <c r="O11">
-        <v>0.3217378533562667</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="P11">
-        <v>0.3217378533562668</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="Q11">
-        <v>0.0394702273268889</v>
+        <v>0.06903565316100001</v>
       </c>
       <c r="R11">
-        <v>0.3552320459420001</v>
+        <v>0.621320878449</v>
       </c>
       <c r="S11">
-        <v>0.03595559544831918</v>
+        <v>0.04752153508417675</v>
       </c>
       <c r="T11">
-        <v>0.03595559544831918</v>
+        <v>0.04752153508417676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1157,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H12">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I12">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J12">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.02055033333333333</v>
+        <v>0.02660066666666666</v>
       </c>
       <c r="N12">
-        <v>0.061651</v>
+        <v>0.079802</v>
       </c>
       <c r="O12">
-        <v>0.03482428566183427</v>
+        <v>0.03368493388336609</v>
       </c>
       <c r="P12">
-        <v>0.03482428566183428</v>
+        <v>0.0336849338833661</v>
       </c>
       <c r="Q12">
-        <v>0.004272181396222222</v>
+        <v>0.009672241805999999</v>
       </c>
       <c r="R12">
-        <v>0.038449632566</v>
+        <v>0.08705017625399999</v>
       </c>
       <c r="S12">
-        <v>0.003891764409974816</v>
+        <v>0.006658005788031456</v>
       </c>
       <c r="T12">
-        <v>0.003891764409974816</v>
+        <v>0.006658005788031458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2078886666666667</v>
+        <v>0.363609</v>
       </c>
       <c r="H13">
-        <v>0.6236660000000001</v>
+        <v>1.090827</v>
       </c>
       <c r="I13">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="J13">
-        <v>0.11175432133099</v>
+        <v>0.1976553022512904</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.174373</v>
+        <v>0.3184323333333333</v>
       </c>
       <c r="N13">
-        <v>0.523119</v>
+        <v>0.955297</v>
       </c>
       <c r="O13">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381942</v>
       </c>
       <c r="P13">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381943</v>
       </c>
       <c r="Q13">
-        <v>0.03625017047266667</v>
+        <v>0.115784862291</v>
       </c>
       <c r="R13">
-        <v>0.3262515342540001</v>
+        <v>1.042063760619</v>
       </c>
       <c r="S13">
-        <v>0.03302226900425972</v>
+        <v>0.07970192420351728</v>
       </c>
       <c r="T13">
-        <v>0.03302226900425972</v>
+        <v>0.07970192420351729</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H14">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I14">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J14">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2053293333333333</v>
+        <v>0.254795</v>
       </c>
       <c r="N14">
-        <v>0.615988</v>
+        <v>0.764385</v>
       </c>
       <c r="O14">
-        <v>0.347947998836385</v>
+        <v>0.322651790511977</v>
       </c>
       <c r="P14">
-        <v>0.347947998836385</v>
+        <v>0.3226517905119771</v>
       </c>
       <c r="Q14">
-        <v>0.1014537027017778</v>
+        <v>0.1962113445566667</v>
       </c>
       <c r="R14">
-        <v>0.913083324316</v>
+        <v>1.76590210101</v>
       </c>
       <c r="S14">
-        <v>0.09241974364292815</v>
+        <v>0.1350644756343182</v>
       </c>
       <c r="T14">
-        <v>0.09241974364292814</v>
+        <v>0.1350644756343183</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H15">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I15">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J15">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1898623333333334</v>
+        <v>0.1898623333333333</v>
       </c>
       <c r="N15">
-        <v>0.5695870000000001</v>
+        <v>0.569587</v>
       </c>
       <c r="O15">
-        <v>0.3217378533562667</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="P15">
-        <v>0.3217378533562668</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="Q15">
-        <v>0.09381142191211113</v>
+        <v>0.1462082996291111</v>
       </c>
       <c r="R15">
-        <v>0.8443027972090001</v>
+        <v>1.315874696662</v>
       </c>
       <c r="S15">
-        <v>0.08545797080843218</v>
+        <v>0.1006442688999973</v>
       </c>
       <c r="T15">
-        <v>0.08545797080843216</v>
+        <v>0.1006442688999973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H16">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I16">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J16">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02055033333333333</v>
+        <v>0.02660066666666666</v>
       </c>
       <c r="N16">
-        <v>0.061651</v>
+        <v>0.079802</v>
       </c>
       <c r="O16">
-        <v>0.03482428566183427</v>
+        <v>0.03368493388336609</v>
       </c>
       <c r="P16">
-        <v>0.03482428566183428</v>
+        <v>0.0336849338833661</v>
       </c>
       <c r="Q16">
-        <v>0.01015396765077778</v>
+        <v>0.02048451725022222</v>
       </c>
       <c r="R16">
-        <v>0.09138570885699999</v>
+        <v>0.184360655252</v>
       </c>
       <c r="S16">
-        <v>0.009249806189942276</v>
+        <v>0.01410076765578846</v>
       </c>
       <c r="T16">
-        <v>0.009249806189942276</v>
+        <v>0.01410076765578846</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4941023333333334</v>
+        <v>0.7700753333333333</v>
       </c>
       <c r="H17">
-        <v>1.482307</v>
+        <v>2.310226</v>
       </c>
       <c r="I17">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="J17">
-        <v>0.2656136662719722</v>
+        <v>0.4186075503253857</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.174373</v>
+        <v>0.3184323333333333</v>
       </c>
       <c r="N17">
-        <v>0.523119</v>
+        <v>0.955297</v>
       </c>
       <c r="O17">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381942</v>
       </c>
       <c r="P17">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381943</v>
       </c>
       <c r="Q17">
-        <v>0.08615810617033334</v>
+        <v>0.2452168852357778</v>
       </c>
       <c r="R17">
-        <v>0.775422955533</v>
+        <v>2.206951967122</v>
       </c>
       <c r="S17">
-        <v>0.07848614563066963</v>
+        <v>0.1687980381352817</v>
       </c>
       <c r="T17">
-        <v>0.07848614563066963</v>
+        <v>0.1687980381352817</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1523,55 +1526,55 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.31308</v>
+      </c>
+      <c r="H18">
+        <v>0.93924</v>
+      </c>
+      <c r="I18">
+        <v>0.170188092233234</v>
+      </c>
+      <c r="J18">
+        <v>0.170188092233234</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.9334356666666667</v>
-      </c>
-      <c r="H18">
-        <v>2.800307</v>
-      </c>
-      <c r="I18">
-        <v>0.5017852637524263</v>
-      </c>
-      <c r="J18">
-        <v>0.5017852637524263</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2053293333333333</v>
+        <v>0.254795</v>
       </c>
       <c r="N18">
-        <v>0.615988</v>
+        <v>0.764385</v>
       </c>
       <c r="O18">
-        <v>0.347947998836385</v>
+        <v>0.322651790511977</v>
       </c>
       <c r="P18">
-        <v>0.347947998836385</v>
+        <v>0.3226517905119771</v>
       </c>
       <c r="Q18">
-        <v>0.1916617231462222</v>
+        <v>0.07977121859999999</v>
       </c>
       <c r="R18">
-        <v>1.724955508316</v>
+        <v>0.7179409673999999</v>
       </c>
       <c r="S18">
-        <v>0.1745951783682443</v>
+        <v>0.05491149268287044</v>
       </c>
       <c r="T18">
-        <v>0.1745951783682443</v>
+        <v>0.05491149268287045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H19">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I19">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J19">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1898623333333334</v>
+        <v>0.1898623333333333</v>
       </c>
       <c r="N19">
-        <v>0.5695870000000001</v>
+        <v>0.569587</v>
       </c>
       <c r="O19">
-        <v>0.3217378533562667</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="P19">
-        <v>0.3217378533562668</v>
+        <v>0.2404263105664625</v>
       </c>
       <c r="Q19">
-        <v>0.1772242736898889</v>
+        <v>0.05944209931999999</v>
       </c>
       <c r="R19">
-        <v>1.595018463209</v>
+        <v>0.53497889388</v>
       </c>
       <c r="S19">
-        <v>0.1614433136055137</v>
+        <v>0.04091769511798129</v>
       </c>
       <c r="T19">
-        <v>0.1614433136055138</v>
+        <v>0.04091769511798129</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1653,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H20">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I20">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J20">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.02055033333333333</v>
+        <v>0.02660066666666666</v>
       </c>
       <c r="N20">
-        <v>0.061651</v>
+        <v>0.079802</v>
       </c>
       <c r="O20">
-        <v>0.03482428566183427</v>
+        <v>0.03368493388336609</v>
       </c>
       <c r="P20">
-        <v>0.03482428566183428</v>
+        <v>0.0336849338833661</v>
       </c>
       <c r="Q20">
-        <v>0.01918241409522222</v>
+        <v>0.008328136719999999</v>
       </c>
       <c r="R20">
-        <v>0.172641726857</v>
+        <v>0.07495323047999999</v>
       </c>
       <c r="S20">
-        <v>0.01747431336581335</v>
+        <v>0.005732774634612697</v>
       </c>
       <c r="T20">
-        <v>0.01747431336581335</v>
+        <v>0.005732774634612699</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1715,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.9334356666666667</v>
+        <v>0.31308</v>
       </c>
       <c r="H21">
-        <v>2.800307</v>
+        <v>0.93924</v>
       </c>
       <c r="I21">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="J21">
-        <v>0.5017852637524263</v>
+        <v>0.170188092233234</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.174373</v>
+        <v>0.3184323333333333</v>
       </c>
       <c r="N21">
-        <v>0.523119</v>
+        <v>0.955297</v>
       </c>
       <c r="O21">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381942</v>
       </c>
       <c r="P21">
-        <v>0.295489862145514</v>
+        <v>0.4032369650381943</v>
       </c>
       <c r="Q21">
-        <v>0.1627659775036667</v>
+        <v>0.09969479491999998</v>
       </c>
       <c r="R21">
-        <v>1.464893797533</v>
+        <v>0.89725315428</v>
       </c>
       <c r="S21">
-        <v>0.1482724584128548</v>
+        <v>0.06862612979776955</v>
       </c>
       <c r="T21">
-        <v>0.1482724584128548</v>
+        <v>0.06862612979776957</v>
       </c>
     </row>
   </sheetData>
